--- a/biology/Médecine/1574_en_santé_et_médecine/1574_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1574_en_santé_et_médecine/1574_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1574_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1574_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1574 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1574_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1574_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charles de L'Écluse fait imprimer à Anvers, chez Christophe Plantin, une deuxième édition[1] de sa traduction du portugais en latin des Colloques des simples de l'Inde (1563) de Garcia de Orta, version qui, cinq fois rééditée, se retrouvera « dans les bibliothèques de toute l'Europe[2],[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Charles de L'Écluse fait imprimer à Anvers, chez Christophe Plantin, une deuxième édition de sa traduction du portugais en latin des Colloques des simples de l'Inde (1563) de Garcia de Orta, version qui, cinq fois rééditée, se retrouvera « dans les bibliothèques de toute l'Europe, ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1574_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1574_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Robert Fludd (mort en 1637), médecin paracelsien, astrologue et mystique anglais[4].
-Anna von Diesbach (morte en 1651[5]), compilatrice d'une pharmacopée publiée à titre posthume sous le titre d'Arzneibüchlein[6].
-Thomas Platter le Jeune (mort en 1628[7]), botaniste et médecin suisse, fils de l'humaniste Thomas Platter le Vieux et demi-frère du médecin, anatomiste et botaniste Félix Platter (1536-1614[8],[9]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Robert Fludd (mort en 1637), médecin paracelsien, astrologue et mystique anglais.
+Anna von Diesbach (morte en 1651), compilatrice d'une pharmacopée publiée à titre posthume sous le titre d'Arzneibüchlein.
+Thomas Platter le Jeune (mort en 1628), botaniste et médecin suisse, fils de l'humaniste Thomas Platter le Vieux et demi-frère du médecin, anatomiste et botaniste Félix Platter (1536-1614,).</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1574_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1574_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +589,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4 octobre : Jean Gonthier d'Andernach (né en 1487), médecin et anatomiste allemand, professeur à Paris et médecin ordinaire de François Ier, puis praticien à Metz et Strasbourg[10].
-Bartolomeo Eustachi (né en  1510), médecin anatomiste italien[11].
-Louis Laurens (né en 1511), médecin, gendre d'Honoré Castellan (1511-1569) et père d'André Du Laurens(1558-1609), tous deux également médecins[12].
-1574 ou 1575 : Felix Würtz (né en 1514), chirurgien suisse[13].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 octobre : Jean Gonthier d'Andernach (né en 1487), médecin et anatomiste allemand, professeur à Paris et médecin ordinaire de François Ier, puis praticien à Metz et Strasbourg.
+Bartolomeo Eustachi (né en  1510), médecin anatomiste italien.
+Louis Laurens (né en 1511), médecin, gendre d'Honoré Castellan (1511-1569) et père d'André Du Laurens(1558-1609), tous deux également médecins.
+1574 ou 1575 : Felix Würtz (né en 1514), chirurgien suisse.</t>
         </is>
       </c>
     </row>
